--- a/Demo_files/schedule_fras_41.xlsx
+++ b/Demo_files/schedule_fras_41.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073DBF70-F057-4E12-97F4-468A4B0670EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E7EF4A-87C7-4791-B44D-0434AD9E0538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>DEPARTMENT OF COMPUTER SCIENCE AND ENGINEERING</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>CS474</t>
-  </si>
-  <si>
-    <t>CS471(B)CS271(A)</t>
   </si>
   <si>
     <t>CS472(B)CS471(A)</t>
@@ -291,8 +288,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -308,10 +307,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,43 +533,43 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
@@ -633,18 +630,18 @@
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11" t="s">
+      <c r="D7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="I7" s="20"/>
     </row>
@@ -660,12 +657,12 @@
         <v>20</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="20"/>
     </row>
@@ -683,11 +680,11 @@
       <c r="E9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="10"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="15">
@@ -698,11 +695,11 @@
       <c r="C10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -715,13 +712,13 @@
       <c r="C11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="12"/>
+      <c r="D11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="15">
@@ -734,22 +731,22 @@
       <c r="E12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="15"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="19"/>
+      <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:F12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
